--- a/Base de datos/datosPrueba.xlsx
+++ b/Base de datos/datosPrueba.xlsx
@@ -5066,6 +5066,9 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="2">
+        <v>8.0</v>
+      </c>
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
@@ -5200,6 +5203,9 @@
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8.0</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
